--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H2">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I2">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J2">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N2">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O2">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P2">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q2">
-        <v>95.75761290434268</v>
+        <v>18.84518403883733</v>
       </c>
       <c r="R2">
-        <v>861.8185161390841</v>
+        <v>169.606656349536</v>
       </c>
       <c r="S2">
-        <v>0.09480907731474476</v>
+        <v>0.02801721095086524</v>
       </c>
       <c r="T2">
-        <v>0.09480907731474476</v>
+        <v>0.02801721095086524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H3">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I3">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J3">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>56.820645</v>
       </c>
       <c r="O3">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P3">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q3">
-        <v>234.909368955555</v>
+        <v>161.67094784904</v>
       </c>
       <c r="R3">
-        <v>2114.184320599995</v>
+        <v>1455.03853064136</v>
       </c>
       <c r="S3">
-        <v>0.2325824532145902</v>
+        <v>0.2403568487937325</v>
       </c>
       <c r="T3">
-        <v>0.2325824532145902</v>
+        <v>0.2403568487937325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H4">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I4">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J4">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N4">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O4">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P4">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q4">
-        <v>169.582633600359</v>
+        <v>68.26912756294401</v>
       </c>
       <c r="R4">
-        <v>1526.243702403231</v>
+        <v>614.422148066496</v>
       </c>
       <c r="S4">
-        <v>0.167902817672738</v>
+        <v>0.1014959866892622</v>
       </c>
       <c r="T4">
-        <v>0.167902817672738</v>
+        <v>0.1014959866892622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>15.485456</v>
       </c>
       <c r="I5">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J5">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N5">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O5">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P5">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q5">
-        <v>39.85296349853155</v>
+        <v>11.39609463285689</v>
       </c>
       <c r="R5">
-        <v>358.676671486784</v>
+        <v>102.564851695712</v>
       </c>
       <c r="S5">
-        <v>0.03945819640813774</v>
+        <v>0.01694261975297075</v>
       </c>
       <c r="T5">
-        <v>0.03945819640813775</v>
+        <v>0.01694261975297075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>56.820645</v>
       </c>
       <c r="O6">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P6">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q6">
         <v>97.76595533767998</v>
@@ -821,10 +821,10 @@
         <v>879.89359803912</v>
       </c>
       <c r="S6">
-        <v>0.09679752593268355</v>
+        <v>0.1453490392486314</v>
       </c>
       <c r="T6">
-        <v>0.09679752593268358</v>
+        <v>0.1453490392486314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N7">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O7">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P7">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q7">
-        <v>70.57789247118399</v>
+        <v>41.28383339778133</v>
       </c>
       <c r="R7">
-        <v>635.2010322406559</v>
+        <v>371.554500580032</v>
       </c>
       <c r="S7">
-        <v>0.06987877685188999</v>
+        <v>0.06137684125463048</v>
       </c>
       <c r="T7">
-        <v>0.06987877685189001</v>
+        <v>0.06137684125463048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H8">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I8">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J8">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N8">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O8">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P8">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q8">
-        <v>33.99748608497066</v>
+        <v>11.77940572542533</v>
       </c>
       <c r="R8">
-        <v>305.9773747647359</v>
+        <v>106.014651528828</v>
       </c>
       <c r="S8">
-        <v>0.03366072094922455</v>
+        <v>0.01751248989688468</v>
       </c>
       <c r="T8">
-        <v>0.03366072094922455</v>
+        <v>0.01751248989688468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H9">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I9">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J9">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>56.820645</v>
       </c>
       <c r="O9">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P9">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q9">
-        <v>83.40149425271998</v>
+        <v>101.05434283917</v>
       </c>
       <c r="R9">
-        <v>750.61344827448</v>
+        <v>909.48908555253</v>
       </c>
       <c r="S9">
-        <v>0.08257535330031993</v>
+        <v>0.1502378981808426</v>
       </c>
       <c r="T9">
-        <v>0.08257535330031994</v>
+        <v>0.1502378981808426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H10">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N10">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O10">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P10">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q10">
-        <v>60.20809261233599</v>
+        <v>42.672427630712</v>
       </c>
       <c r="R10">
-        <v>541.8728335110239</v>
+        <v>384.051848676408</v>
       </c>
       <c r="S10">
-        <v>0.05961169597198053</v>
+        <v>0.06344126988896998</v>
       </c>
       <c r="T10">
-        <v>0.05961169597198054</v>
+        <v>0.06344126988896998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H11">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I11">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J11">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.720721333333333</v>
+        <v>2.207767333333333</v>
       </c>
       <c r="N11">
-        <v>23.162164</v>
+        <v>6.623302000000001</v>
       </c>
       <c r="O11">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="P11">
-        <v>0.1914196631940246</v>
+        <v>0.07574879669493666</v>
       </c>
       <c r="Q11">
-        <v>23.726695423172</v>
+        <v>8.930140684649334</v>
       </c>
       <c r="R11">
-        <v>213.540258808548</v>
+        <v>80.37126616184401</v>
       </c>
       <c r="S11">
-        <v>0.02349166852191757</v>
+        <v>0.01327647609421598</v>
       </c>
       <c r="T11">
-        <v>0.02349166852191757</v>
+        <v>0.01327647609421598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H12">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I12">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J12">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>56.820645</v>
       </c>
       <c r="O12">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="P12">
-        <v>0.4695843069053151</v>
+        <v>0.6498413459298955</v>
       </c>
       <c r="Q12">
-        <v>58.205534580585</v>
+        <v>76.61078320790999</v>
       </c>
       <c r="R12">
-        <v>523.8498112252651</v>
+        <v>689.49704887119</v>
       </c>
       <c r="S12">
-        <v>0.05762897445772135</v>
+        <v>0.113897559706689</v>
       </c>
       <c r="T12">
-        <v>0.05762897445772136</v>
+        <v>0.113897559706689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H13">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I13">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J13">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.673067</v>
+        <v>7.997924</v>
       </c>
       <c r="N13">
-        <v>41.019201</v>
+        <v>23.993772</v>
       </c>
       <c r="O13">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="P13">
-        <v>0.3389960299006603</v>
+        <v>0.2744098573751678</v>
       </c>
       <c r="Q13">
-        <v>42.01896198597299</v>
+        <v>32.350594841576</v>
       </c>
       <c r="R13">
-        <v>378.170657873757</v>
+        <v>291.155353574184</v>
       </c>
       <c r="S13">
-        <v>0.04160273940405178</v>
+        <v>0.04809575954230516</v>
       </c>
       <c r="T13">
-        <v>0.04160273940405179</v>
+        <v>0.04809575954230516</v>
       </c>
     </row>
   </sheetData>
